--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/C Dados/Projeto 1 Cdados/Pasta Projeto 1/Projeto1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_7F36B00B961B94CF3EA78341E778F545E12F4889" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217BEA95-F264-4210-940D-325CBE3E8147}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0808386-5C10-CA46-AEE2-2DE021E23D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2950,17 +2950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="161.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,2252 +2968,2999 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -5231,12 +5978,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -5244,1502 +5991,1502 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" ht="208" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0808386-5C10-CA46-AEE2-2DE021E23D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD1F2E6-43FB-40E9-951C-3325B3093768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2950,17 +2950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="161.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="161.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4960,1007 +4960,1013 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="224" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="224" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="224" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -5978,12 +5984,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -5991,1502 +5997,1502 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="208" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD1F2E6-43FB-40E9-951C-3325B3093768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D904B7F-3A90-4B71-90DF-5002EC778E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2951,7 +2951,7 @@
   <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,6 +4979,9 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D904B7F-3A90-4B71-90DF-5002EC778E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7B2E2-6BA7-42E5-B476-58F56938FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251:B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,493 +4988,784 @@
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/C Dados/Projeto 1 Cdados/Pasta Projeto 1/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7B2E2-6BA7-42E5-B476-58F56938FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{CAC7B2E2-6BA7-42E5-B476-58F56938FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD582D21-0296-4A03-BF2F-6791B8DF76AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2950,17 +2950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A442" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B251" sqref="B251:B350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="161.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -5760,507 +5760,507 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -6274,16 +6274,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6291,1504 +6291,1960 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>751</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/C Dados/Projeto 1 Cdados/Pasta Projeto 1/Projeto1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{CAC7B2E2-6BA7-42E5-B476-58F56938FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD582D21-0296-4A03-BF2F-6791B8DF76AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2059B-AD77-6A4B-B348-B06776C2D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2948,19 +2948,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B452"/>
   <sheetViews>
-    <sheetView topLeftCell="A442" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251:B350"/>
+    <sheetView topLeftCell="A34" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="161.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -5760,509 +5760,817 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>450</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B452">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6274,16 +6582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6291,252 +6599,252 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
@@ -6544,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
@@ -6552,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
@@ -6560,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
@@ -6568,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
@@ -6576,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
@@ -6584,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
@@ -6592,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
@@ -6600,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
@@ -6608,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
@@ -6616,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
@@ -6624,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
@@ -6632,7 +6940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
@@ -6640,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
@@ -6648,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
@@ -6656,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
@@ -6664,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -6672,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
@@ -6680,7 +6988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
@@ -6688,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
@@ -6696,7 +7004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
@@ -6704,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
@@ -6712,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
@@ -6720,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -6728,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
@@ -6736,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
@@ -6744,7 +7052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
@@ -6752,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
@@ -6760,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
@@ -6768,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
@@ -6776,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
@@ -6784,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
@@ -6792,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
@@ -6800,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
@@ -6808,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
@@ -6816,7 +7124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
@@ -6824,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
@@ -6832,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
@@ -6840,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
@@ -6848,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
@@ -6856,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
@@ -6864,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
@@ -6872,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
@@ -6880,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
@@ -6888,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
@@ -6896,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
@@ -6904,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
@@ -6912,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
@@ -6920,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
@@ -6928,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
@@ -6936,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
@@ -6944,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
@@ -6952,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
@@ -6960,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
@@ -6968,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
@@ -6976,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
@@ -6984,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
@@ -6992,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
@@ -7000,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
@@ -7008,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
@@ -7016,7 +7324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
@@ -7024,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
@@ -7032,7 +7340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
@@ -7040,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
@@ -7048,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
@@ -7056,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
@@ -7064,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
@@ -7072,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
@@ -7080,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
@@ -7088,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
@@ -7096,7 +7404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
@@ -7104,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
@@ -7112,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
@@ -7120,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
@@ -7128,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
@@ -7136,7 +7444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
@@ -7144,7 +7452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
@@ -7152,7 +7460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
@@ -7160,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -7168,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
@@ -7176,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
@@ -7184,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
@@ -7192,7 +7500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
@@ -7200,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
@@ -7208,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
@@ -7216,7 +7524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
@@ -7224,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
@@ -7232,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
@@ -7240,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
@@ -7248,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7256,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
@@ -7264,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
@@ -7272,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
@@ -7280,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
@@ -7288,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
@@ -7296,7 +7604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
@@ -7304,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
@@ -7312,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
@@ -7320,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
@@ -7328,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
@@ -7336,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
@@ -7344,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -7352,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -7360,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -7368,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
@@ -7376,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
@@ -7384,7 +7692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
@@ -7392,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
@@ -7400,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
@@ -7408,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
@@ -7416,7 +7724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
@@ -7424,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
@@ -7432,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
@@ -7440,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
@@ -7448,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
@@ -7456,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
@@ -7464,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
@@ -7472,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
@@ -7480,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
@@ -7488,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
@@ -7496,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
@@ -7504,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
@@ -7512,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
@@ -7520,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
@@ -7528,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
@@ -7536,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
@@ -7544,7 +7852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
@@ -7552,7 +7860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
@@ -7560,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
@@ -7568,7 +7876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
@@ -7576,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
@@ -7584,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
@@ -7592,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
@@ -7600,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
@@ -7608,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
@@ -7616,7 +7924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
@@ -7624,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
@@ -7632,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
@@ -7640,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
@@ -7648,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
@@ -7656,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
@@ -7664,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
@@ -7672,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
@@ -7680,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
@@ -7688,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
@@ -7696,7 +8004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
@@ -7704,7 +8012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
@@ -7712,7 +8020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
@@ -7720,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
@@ -7728,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
@@ -7736,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
@@ -7744,502 +8052,502 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2059B-AD77-6A4B-B348-B06776C2D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A276AC-85B2-8B41-9F6F-C1B28E3B5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B452"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D439" sqref="D439"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2997,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3061,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3085,7 +3085,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3189,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3269,7 +3269,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3341,7 +3341,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3389,7 +3389,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3413,7 +3413,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3453,7 +3453,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3517,7 +3517,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3541,7 +3541,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3589,7 +3589,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -3605,7 +3605,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3613,7 +3613,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -3733,7 +3733,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3797,7 +3797,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -3917,7 +3917,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3981,7 +3981,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3997,7 +3997,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4005,7 +4005,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4253,7 +4253,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4309,7 +4309,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -4373,7 +4373,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4405,7 +4405,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4461,7 +4461,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -4533,7 +4533,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4605,7 +4605,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A276AC-85B2-8B41-9F6F-C1B28E3B5A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76880D60-5A79-4064-ADD1-C131460048ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2950,17 +2950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="161.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="161.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4864,15 +4864,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5040,15 +5040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5104,15 +5104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5272,15 +5272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -5752,15 +5752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B350">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
@@ -5792,15 +5792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B355">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
@@ -6408,23 +6408,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B433">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>0</v>
       </c>
@@ -6583,15 +6583,15 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6599,252 +6599,399 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
@@ -6852,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
@@ -6860,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
@@ -6868,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
@@ -6876,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
@@ -6884,15 +7031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
@@ -6900,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
@@ -6908,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
@@ -6916,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
@@ -6924,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
@@ -6932,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
@@ -6940,7 +7087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
@@ -6948,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
@@ -6956,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
@@ -6964,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
@@ -6972,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -6980,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
@@ -6988,7 +7135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
@@ -6996,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
@@ -7004,15 +7151,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
       <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
@@ -7020,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
@@ -7028,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -7036,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
@@ -7044,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
@@ -7052,7 +7199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
@@ -7060,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
@@ -7068,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
@@ -7076,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
@@ -7084,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
@@ -7092,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
@@ -7100,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
@@ -7108,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
@@ -7116,15 +7263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
@@ -7132,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
@@ -7140,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
@@ -7148,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
@@ -7156,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
@@ -7164,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
@@ -7172,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
@@ -7180,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
@@ -7188,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
@@ -7196,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
@@ -7204,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
@@ -7212,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
@@ -7220,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
@@ -7228,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
@@ -7236,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
@@ -7244,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
@@ -7252,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
@@ -7260,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
@@ -7268,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
@@ -7276,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
@@ -7284,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
@@ -7292,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
@@ -7300,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
@@ -7308,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
@@ -7316,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
@@ -7324,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
@@ -7332,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
@@ -7340,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
@@ -7348,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
@@ -7356,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
@@ -7364,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
@@ -7372,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
@@ -7380,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
@@ -7388,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
@@ -7396,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
@@ -7404,7 +7551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
@@ -7412,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
@@ -7420,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
@@ -7428,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
@@ -7436,15 +7583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
       <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
@@ -7452,7 +7599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
@@ -7460,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
@@ -7468,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -7476,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
@@ -7484,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
@@ -7492,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
@@ -7500,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
@@ -7508,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
@@ -7516,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
@@ -7524,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
@@ -7532,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
@@ -7540,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
@@ -7548,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
@@ -7556,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7564,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
@@ -7572,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
@@ -7580,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
@@ -7588,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
@@ -7596,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
@@ -7604,7 +7751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
@@ -7612,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
@@ -7620,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
@@ -7628,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
@@ -7636,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
@@ -7644,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
@@ -7652,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -7660,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -7668,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -7676,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
@@ -7684,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
@@ -7692,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
@@ -7700,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
@@ -7708,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
@@ -7716,23 +7863,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
       <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
       <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
@@ -7740,7 +7887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
@@ -7748,15 +7895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
       <c r="B164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
@@ -7764,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
@@ -7772,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
@@ -7780,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
@@ -7788,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
@@ -7796,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
@@ -7804,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
@@ -7812,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
@@ -7820,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
@@ -7828,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
@@ -7836,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
@@ -7844,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
@@ -7852,7 +7999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
@@ -7860,7 +8007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
@@ -7868,15 +8015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
       <c r="B179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
@@ -7884,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
@@ -7892,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
@@ -7900,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
@@ -7908,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
@@ -7916,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
@@ -7924,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
@@ -7932,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
@@ -7940,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
@@ -7948,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
@@ -7956,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
@@ -7964,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
@@ -7972,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
@@ -7980,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
@@ -7988,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
@@ -7996,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
@@ -8004,7 +8151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
@@ -8012,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
@@ -8020,7 +8167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
@@ -8028,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
@@ -8036,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
@@ -8044,510 +8191,807 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
       <c r="B201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocam\OneDrive\Documentos\Insper\2 semestre\CDados\Projeto1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76880D60-5A79-4064-ADD1-C131460048ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{76880D60-5A79-4064-ADD1-C131460048ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3875A55-020A-4AF6-A8C0-EA488546967B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1004">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2544,6 +2544,819 @@
   </si>
   <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/3b1za8dmdo</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/wh11g7r4s8</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/nfnaszy2fe</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ycv51nokme</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/gbi85u681x</t>
+  </si>
+  <si>
+    <t>"malditos templários acabaram com a história do tesla."
+brincadeira para quem joga assassins creed https://t.co/odjx7krah7</t>
+  </si>
+  <si>
+    <t>@memeinteligente einstein e tesla, mas acho q o tesla recusaria falando que deve ter algo mais interessante pra fzr</t>
+  </si>
+  <si>
+    <t>@josromeurocha1 @math_felps @scorninpc @icarousan @astronomiaum tesla já era "rico" e bem sucedido antes de trabalhar na empresa do thomas edison. a culpa do tesla ter morrido pobre e esquecido é apenas do tesla. o felipe castanhari fez um documentário muito bom e accurate da vida do tesla.</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ppuzw5loxk</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/1pugietoji</t>
+  </si>
+  <si>
+    <t>https://t.co/uxvplrdior
+baita comparativo interessante
+trajeto de 1040km audi q5 gasolina levou 11h8m considerando abastecimentos, tempo pra banheiro e comer e o model s apenas 47 minutos a mais
+o papo de 'demora pra carregar' pelo menos nos eua pra tesla já tá caindo por terra</t>
+  </si>
+  <si>
+    <t>tesla terá que dividir dados de sistema de direção autônoma com agência de tráfego nos eua. via @brains9 https://t.co/v2fpzfcre6 #dicapipa #dicadeleitura #digital</t>
+  </si>
+  <si>
+    <t>@cm_thallya @memeinteligente se bem que o tesla n eh mt diferente do einstein ksjskssksks</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ipwpcyyj1b</t>
+  </si>
+  <si>
+    <t>@memeinteligente hawking por ser o mais recente e newton por ser um dos antigos
+ou tesla, ja q einten diz q ele é a pessoa mais inteligente do mundo, mas n concordo, entt prefiro newton msm</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/psuys1o0ux</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/x8svwpfng3</t>
+  </si>
+  <si>
+    <t>@memeinteligente newton e tesla, n sei kkk</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ubelaxprlq</t>
+  </si>
+  <si>
+    <t>como eu amo essa referencia ao nikola tesla no red dead 2 com replica de barquinho por radio sério é genial</t>
+  </si>
+  <si>
+    <t>@memeinteligente tesla e einsten dariam uma boa ajuda</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/bknqoft9lu</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/zsq2s8hlgb</t>
+  </si>
+  <si>
+    <t>fui no aniversário da minha prima e o padrinho dela (que não é parente meu) foi dar uma de coach pra cima de mim falando que sou parecido com o tesla sendo que kkkkk ele não sabia que era o tesla, ele achava que era o elon musk que chamava tesla '-'</t>
+  </si>
+  <si>
+    <t>@memeinteligente como eu sou burro e o einstein já repetiu mt de ano vou escolher ele e o tesla ksk</t>
+  </si>
+  <si>
+    <t>homem fez o “golpe do atropelamento” mas tesla filmou tudo e acabou detido https://t.co/bv3uuqjcyl</t>
+  </si>
+  <si>
+    <t>@memeinteligente eu ia pedir a ajuda de tesla só pq eu n quero ele fazendo as questões
+e de gostaria que feyman estivesse ai 😕
+ent seria tesla e hawking</t>
+  </si>
+  <si>
+    <t>ai agnt pegou tbm a bborges, a jullya e o kauã 
+ai agnt fez uma festinha na ilha
+foi tudo, ai agnt ligou pra onu e conseguimos tombar o governo e o rogá tudo de uma vez
+ai eu recebi um nobel e a raphisa tbm
+ganhei um tesla voador e fiquei famosa https://t.co/pvgktqxgas</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/g7cxkgtt8s</t>
+  </si>
+  <si>
+    <t>@astronomiaum e hoje o filho dele é o bilionario dono da tesla 👏👏👏</t>
+  </si>
+  <si>
+    <t>@lord_yron pior que o plano do tesla era usar eletricidade limpa é renovável, eu não sei se nessa época já existia teto solar, mas imagina se existisse, com certeza iria ser mais fácil para ele kkkkkkk</t>
+  </si>
+  <si>
+    <t>https://t.co/o6pjjvbof5
+foi essa mesma pergunta que o designer californiano ash thorp se fez ao dirigir seu tesla.  imaginou como seria uma motocicleta feita pela marca e resolveu desenhar o protótipo ‘o sokuto’, um conceito de motocicleta à cara da empresa de tecnologia.</t>
+  </si>
+  <si>
+    <t>sonhei com um tesla hj, senhor, se for sua vontade, seu filho aqui está pronto, ok?!</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/0tgusvuhbw</t>
+  </si>
+  <si>
+    <t>cade meu tesla? @txspio</t>
+  </si>
+  <si>
+    <t>@niilockheart @memeinteligente tesla é um dos maiores físicos da história, mas provavelmente ele iria te mandar tomar no cu se tu pedisse ajuda</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/a6fufg3aw2</t>
+  </si>
+  <si>
+    <t>@ruivaa__ tesla brabo né</t>
+  </si>
+  <si>
+    <t>@canalteslabr será que o sw é realmente outro?
+será que não é uma ativação de recursos que a tesla habilita e o sw passa a ter o recurso?</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/beuyi9mfap</t>
+  </si>
+  <si>
+    <t>um gajo num tesla a tirar macacos do nariz.</t>
+  </si>
+  <si>
+    <t>@rubidio_tesla @brega_falcao eu conto ou voces são a notícia
+😁😁😁😁😁😁
+ladrão o bozo é,sinto muito mais uma decepção.
+tem gente que gosta dos olhos e tem quem goste da remela</t>
+  </si>
+  <si>
+    <t>se você quiser descobrir os segredos do universo, pense em termos de energia, frequência e vibração.
+nikola tesla</t>
+  </si>
+  <si>
+    <t>hawking e tesla e o resto faz as questão
+fichinha https://t.co/tco8b3ok9a</t>
+  </si>
+  <si>
+    <t>esse sinal do tesla demora pra bater hein</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ndgi6xatkq</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/ej9pzaqnra</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/htomegwztw</t>
+  </si>
+  <si>
+    <t>@rubidio_tesla @brega_falcao diz aí como que um ladrão deixa 380bilhões de dólares em reservas cambiais ?</t>
+  </si>
+  <si>
+    <t>@emaciasg @albertoroldan_ @esa_es @sonyespana @tesla @clubteslaes gracias emilio! disparo único. ƒ/2.8, 15s, iso640</t>
+  </si>
+  <si>
+    <t>@diogo_tarcan @astronomiaum foi o tesla q ajudou na melhor distribuição de energia por fios</t>
+  </si>
+  <si>
+    <t>@y_jaydee @taylorogan @tesla @elonmusk panamera turbo s, amg gt63s</t>
+  </si>
+  <si>
+    <t>@paulonegrorubro @astronomiaum esse foi o fdp do ladrão de ideias thomas edison. não o gênio tesla.</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/qd1per8u1w</t>
+  </si>
+  <si>
+    <t>@vitor_a_c ishi .. não foi ele que “”””financiou””” o golpe na bolívia pra continuar explorando o lítio lá? tp pq as baterias do tesla só basicamente feitas de lítio né</t>
+  </si>
+  <si>
+    <t>"se o ódio pudesse ser transformado em eletricidade, iluminaria o mundo todo" 
+- nikola tesla</t>
+  </si>
+  <si>
+    <t>tesla pra resolver as provas do m*n**s https://t.co/e7y525jgba</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/xvmedaizha</t>
+  </si>
+  <si>
+    <t>hoje eu vi um tesla, n acreditei nisso</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/vtnthhq4ax</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/6o99a5dpd6</t>
+  </si>
+  <si>
+    <t>@gutomatuto não achei!</t>
+  </si>
+  <si>
+    <t>@teslaowls bravo !</t>
+  </si>
+  <si>
+    <t>@caipyn_ @meioabextadu @andreluizbeck @astronomiaum sim, estou falando algo de errado? a ideia do tesla não era usar a atmosfera da terra como condutor para fazer meio que uma rede sem fio de energia?</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/s2el7q5ftu</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/aopibkx4ld</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/kg6whgkm3r</t>
+  </si>
+  <si>
+    <t>o gênio nikola tesla https://t.co/1dtncvfhmn</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ystkfviovv</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/cbzpkjm6nq</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/1thiejispx</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/uvoko9hnnf</t>
+  </si>
+  <si>
+    <t>@anjimemes @astronomiaum tesla viveu muito!</t>
+  </si>
+  <si>
+    <t>tesla le bg https://t.co/kjrtgpwqxh</t>
+  </si>
+  <si>
+    <t>estudar na base do ódio meu combustivel diario vou ser o proximo tesla quando descobrir como transformar essa energia do odio em energia pra estudar</t>
+  </si>
+  <si>
+    <t>elon at it again: elon musk destrói o sistema de educação em 1 minuto | legendado https://t.co/cihk5f7sgl
+#elon #elonmusk #spacex #space #tesla #starship</t>
+  </si>
+  <si>
+    <t>@by_zorica tesla je ta rio tinto penicilin. 👍</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/aacf1oaaai</t>
+  </si>
+  <si>
+    <t>@memeinteligente eu diria que hawking (por conta de ser o que é mais próximo do presente, logo teve acesso à mais informações do que o resto) e tesla (porque ninguém supera ele na área em que ele trabalha)
+a gente provavelmente ia errar a questão do aristóteles</t>
+  </si>
+  <si>
+    <t>tesla e einstein  conceteza!!!
+dois gênios da física. https://t.co/6lamh3ppbj</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/0bqhzyugbs</t>
+  </si>
+  <si>
+    <t>@momentoliberal @carmosinda @sofiadoinferno @lordjimpt lol o gajo é um predador com os funcionários da tesla..
+https://t.co/zeaydbqyqb</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/uclmnq02fj</t>
+  </si>
+  <si>
+    <t>@anunakin @paulonegrorubro @_pettter_ @astronomiaum é fato mano, e ainda  o  thomas edison meteu uma propaganda  que as criações do tesla não funcionava e roubou tudo os projetos dele</t>
+  </si>
+  <si>
+    <t>@teslaunivrse @adamhoov @elonmusk @tesla @babydogecoin do do do do do https://t.co/fszbpwnv34</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/xxmlka1bcr</t>
+  </si>
+  <si>
+    <t>@taicowfox @brunocarv29 @memeinteligente o tesla não era tão bom em física. isso é mais lenda e senso comum. na verdade, ele era bom em alguns pontos específicos e era bastante criativo. mas gravitação, quântica, cosmologia, física estatística, física de partículas e outras coisas do tipo eram incompreensíveis pra ele.</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/9wwmvbgbjt</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/tn7g3mojq6</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/crnxenbymc</t>
+  </si>
+  <si>
+    <t>@efranboesa pessoal me chamava de bruce lee no ensino médio.</t>
+  </si>
+  <si>
+    <t>@selenehbecker @memeinteligente nikola e einstein viveram na mesma época
+existe um boato que einstein chegou a até citar o nome de tesla numa entrevista, dizendo que achava tesla ser mais inteligente que ele</t>
+  </si>
+  <si>
+    <t>@selenehbecker @memeinteligente na vdd einstein falou que tesla e muito mas inteligente que ele então tesla e a melhor escolha</t>
+  </si>
+  <si>
+    <t>@9ostobio ata n é q tesla oficial, por isso ta ruim</t>
+  </si>
+  <si>
+    <t>@robotsuicidal @fpsantos_01 @tsilveira88 @ericknachozado @satsujin_sha_ @lucassamuel1981 @andievv @nhenhefuu @astronomiaum pra que google se tem pessoas nessa conversa que podem dizer com suas palavras quem foi o tesla?kkkkkk</t>
+  </si>
+  <si>
+    <t>@txspio tá me devendo um tesla kakakaka</t>
+  </si>
+  <si>
+    <t>tesla (meu fav, te amo) e schrodinger, pq aí se eu não entender a matéria, pelo menos falo dos meus gatinhos com ele https://t.co/8q4ikbbxax</t>
+  </si>
+  <si>
+    <t>alguém aí que tem o carro original físico da tesla pra me conseguir os itens do jogo "beach buggy racing – tesla edition"? 🙏🏻</t>
+  </si>
+  <si>
+    <t>fala pessoal, saiu aquele video fresquinho pra voce que quer minerar seus proprios dogecoins totalmente de graça !!!
+link do site: https://t.co/ruzf2ihyqh
+link do video:https://t.co/hjgafvwick</t>
+  </si>
+  <si>
+    <t>tesla aqui é o renegade do brasil</t>
+  </si>
+  <si>
+    <t>@blackcamaru_ a tesla #singlesconnect</t>
+  </si>
+  <si>
+    <t>muiiito de vizu num tesla refletivo preto</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/pr4tqjb5nb</t>
+  </si>
+  <si>
+    <t>@politta_c se um tesla pode mudar o som pq as chaleiras não? vacilo</t>
+  </si>
+  <si>
+    <t>@dan_ifran @elonmusk @lightdefi @light_defi @tesla o brasil está com a "light defi" projeto grandioso e de extrema importância para nós energia limpa https://t.co/9rf2hjaptg</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ly7vhtkvce</t>
+  </si>
+  <si>
+    <t>@astronomiaum um dos homens mais inteligente de toda história da humanidade.
+um monstro cuja estupidez humana não lhes permitiu dar a esse gênio o devido valor.
+nikolas tesla</t>
+  </si>
+  <si>
+    <t>einstein e schrodinger
+aristóteles n sabe de física
+descobertas de newton e galileu a gente vê no ensino médio
+tesla fez mais experimentos q fórmulas físicas (eu acho) 
+borh, hawking e plank são os problemas https://t.co/b4niouapgy</t>
+  </si>
+  <si>
+    <t>@astronomiaum acho que hoje o tesla tá mais famoso que o edson</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/vfjgveujwr</t>
+  </si>
+  <si>
+    <t>@memeinteligente tesla e hawking. escolhi tesla só pra q ele n formule a questão kkkkk</t>
+  </si>
+  <si>
+    <t>meu irmão acabou de chamar a gracyanne barbosa de robô da tesla.
+🗣🗣🗣🗣🗣🗣🗣🗣</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/tjek6cesi2</t>
+  </si>
+  <si>
+    <t>@agentdbord69 @jeffxmorgan @jdmorgan a tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/hr5urx6srh</t>
+  </si>
+  <si>
+    <t>outro dia vi no pé duma mina aquele boot tesla, nunca tinha visto em lugar nenhum, logo pensei, só pensei, “quero um”
+desde então o instagram me mostra esse boot em propaganda a cada 5 story</t>
+  </si>
+  <si>
+    <t>@guilhermino24 olha não manjo de nada mas hawkings disse que a "ciência ia substituir a filosofia"
+pega o tesla e o einstein que tanka os outros tudo, eu acho</t>
+  </si>
+  <si>
+    <t>@enick36 compra um tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/smgeolq9jc</t>
+  </si>
+  <si>
+    <t>@memeinteligente hawking e tesla, os caras são fodas dms</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/jrr6ejb4oi</t>
+  </si>
+  <si>
+    <t>einstein e tesla pq patrões https://t.co/njyadccyuw</t>
+  </si>
+  <si>
+    <t>@amoedomilitante @meioabextadu @andreluizbeck @astronomiaum eu acho q vc não sabe sobre isso. quem inventou e supôs a corrente alternada foi nikola tesla.
+se o seu único argumento é dizer q eu estou errado, tchau</t>
+  </si>
+  <si>
+    <t>@cm_thallya @memeinteligente acho que o einstein nao faz sentido pedir ajuda, eu imagino que ele falaria fodase a escola e eh isso(pq foi o que ele fez kshskahsjsks
+para mim a melhor escolha seria hawking e tesla(pelo fato dos dois falarem de assuntos da fisica diferentes, conseguindo ajudar mais
+mo foda slc</t>
+  </si>
+  <si>
+    <t>newton e tesla https://t.co/imiuftxvel</t>
+  </si>
+  <si>
+    <t>@belmiracavalca @rubidio_tesla @brega_falcao só lembrando e adicionando que já estava embutido no empenho da covaxin um "comissionamento" de r$ 2.000.000.000,00.</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/2ufwhxgxhe</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ju8ojehuqd</t>
+  </si>
+  <si>
+    <t>@junior_wncjr ele teve feitos sim, tanto que hj tem unidade de medida chamada tesla, mas ele não esse cientista genial que todos falam</t>
+  </si>
+  <si>
+    <t>tesla tá com uma cara de q me chamaria de burra e sairia da sala https://t.co/xloizw1t0t</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/muajypx5ya</t>
+  </si>
+  <si>
+    <t>@matheusmvieira1 @ericknachozado @alquimistatimid @nhenhefuu @astronomiaum como não saber quem é nicolas tesla, só falta falar q tb não conhece alexander graham bell e santos dumont. isso se aprende no ensino de história em todas as escolas 😕</t>
+  </si>
+  <si>
+    <t>@suhomafioso pede pra ele comprar um tesla do paraguai na lojuxa fake do pai do mlk</t>
+  </si>
+  <si>
+    <t>e quando morreu o fbi recolheu todos os escritos e materiais q estavam com ele num quarto de hotel. segundo um zelador, q deu entrevista na época. 
+os americanos…
+o que estava por trás da obsessão de nikola tesla pelas pirâmides do egito | history https://t.co/hlu1dnnv0c</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/vd5vtpbgxo</t>
+  </si>
+  <si>
+    <t>@taicowfox @brunocarv29 @memeinteligente sinceramente, a física do tesla não é tão boa quanto a dos outros. o cara é um gigante quando se fala de eletricidade e suas derivações, mas na física geral em si, é melhor escolher outro da lista :/</t>
+  </si>
+  <si>
+    <t>puta que pariu thomas edison que foi que tu aprontou com o tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/bmd4hku3h6</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/mkxibs8pjj</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/wcogugg8e5</t>
+  </si>
+  <si>
+    <t>@math_felps @scorninpc @icarousan @boyxannie @astronomiaum caralho, não entendi nada agora rsrs. ele quis dizer q tesla foi injustiçado por sujeira, e não pq tinha problema. vc é burro em</t>
+  </si>
+  <si>
+    <t>@jokeeee_ tesla no doubt</t>
+  </si>
+  <si>
+    <t>só quero um tesla pra chamar de meu, é pedir muito?</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/u5dhu19cii</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ofhkow5omj</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/1jvpdhyfv7</t>
+  </si>
+  <si>
+    <t>o indivíduo é efêmero, raças e nações vêm e passam, mas o homem permanece.  ~ nikola tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/jsxklq6k1v</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/smvftyueh0</t>
+  </si>
+  <si>
+    <t>@memeinteligente tesla e schodinger fodase</t>
+  </si>
+  <si>
+    <t>@memeinteligente nikola tesla porque ia revolucionar o meio das máquinas de um jeito que não fuder com o meio ambiente</t>
+  </si>
+  <si>
+    <t>@memeinteligente tesla e hawking
+tesla pra me ajudar a estudar incansávelmente e o hawking pra me explicar de uma maneira mais descontraída e de fácil entendimento</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ltyk7fmull</t>
+  </si>
+  <si>
+    <t>tesla não oferece mais sistema fotovoltaico por assinatura.
+essa era a maneira mais barata de consumidores nos eua usufruírem dos benefícios da energia solar, já que o único custo era o pagamento mensal por uso da energia gerada. https://t.co/elpmxvgepw</t>
+  </si>
+  <si>
+    <t>quem vcs escolheriam???
+me: tesla e hawking https://t.co/bk0olnzevc</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/uq3tx04n1v</t>
+  </si>
+  <si>
+    <t>montblanc meisterstück 149 é uma caneta de tinta permanente, com pistão, caneta-tinteiro, com a forma de um charuto que confere o mesmo prestígio que ter um bmw nos anos 90, um mercedes nos anos 80 ou um tesla na actualidade. na mesma categoria nada bate a clássica pelikan m200. https://t.co/8tpozxjpme</t>
+  </si>
+  <si>
+    <t>@astronomiaum pobre sim, esquecido não. tesla era "acompanhado" pelo fbi. tanto que logo que foi constatada a sua morte, seu quarto no hotel onde morava foi visitado por agentes e seus papéis e suas anotações foram confiscados pelo governo americano.</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/vujj0xnfdp</t>
+  </si>
+  <si>
+    <t>@alegrementedep1 @alllmportante @astronomiaum não era internet. tesla queria tornar a energia elétrica gratuita e acessível em todo o mundo.</t>
+  </si>
+  <si>
+    <t>@rubidio_tesla @brega_falcao pau no seu cu</t>
+  </si>
+  <si>
+    <t>foi a que aumentou meu narcisismo, foi a pessoa que me mimou ao ponto de nem querer comer outra comida a não ser a q vc me leva, a pessoa q tá me fazendo feliz até os dias de hoje, a pessoa q eu qro ser feliz com um tesla rosa choque kakakwkqkq, a pessoa que eu qro ter um futuro+</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/abbcyn4c90</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/fsb7n5nipo</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/mjasu5uhlr</t>
+  </si>
+  <si>
+    <t>análise: como magnata chinês que comprou volvo da ford planeja enfrentar a tesla https://t.co/iubmwzlf3u</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/kc4nacvbow</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/79vbm4ernn</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/qrjorejhf4</t>
+  </si>
+  <si>
+    <t>@momentoliberal @carmosinda @sofiadoinferno @lordjimpt sim, porque a tesla não é o elon musk?</t>
+  </si>
+  <si>
+    <t>@stilldxst é meu natural, tesla q</t>
+  </si>
+  <si>
+    <t>tesla registra patente de limpador de para-brisa que destrói sujeira com laser https://t.co/4jziuvdxnw https://t.co/qujlgzayha</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/8zpwg2qnbu</t>
+  </si>
+  <si>
+    <t>ah mas tinha que ser a trilha de toda apresentação da tesla
+https://t.co/ylsiewf7wo</t>
+  </si>
+  <si>
+    <t>@math_felps @scorninpc @icarousan @boyxannie @astronomiaum hauahaua "bocó". os cara assiste um video do castanhari e ja sabe tudo de tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/st0phfmq35</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/sduumaco1h</t>
+  </si>
+  <si>
+    <t>pessoas mais geniais da terra 
+#1 brian may
+----------barreira------------
+albert einstein 
+nikolas tesla https://t.co/exncgdmqyp</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/8n9dj9hin0</t>
+  </si>
+  <si>
+    <t>@melluubs @ferrsc_ @ingridricarte @felipeneto @whindersson isso nicolas tesla, defenda seu ídolo!!!</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/xjr7ccrt4d</t>
+  </si>
+  <si>
+    <t>a tesla https://t.co/7rgzn7s75v</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/is0hy02say</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/66snifv26x</t>
+  </si>
+  <si>
+    <t>@galactichime devo ver takt op.destiny e tesla note, fora conferir mais uma versão de muv-luv (infelizmente sempre caio no bait)</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/tkrautwfy1</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/gcvn0rrj7j</t>
+  </si>
+  <si>
+    <t>@fredaosoares simplesmente o cara que descobriu a corrente alternada e revolucionou as redes elétricas... além de ter descoberto uma lâmpada bem melhor que edson. tesla é o meu gênio favorito... quem conhece sua biografia sabe como ele foi desprezado. triste</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/jxojctliva</t>
+  </si>
+  <si>
+    <t>elon musk: ‘o próximo beta de direção autônoma vai explodir sua mente’
+de acordo com o ceo da tesla, elon musk, a próxima versão beta do full self-driving beta (fsd) da empresa vai “explodir sua mente”.
+https://t.co/vlhp5n4lbe https://t.co/032lwg9f5j</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/0cnxgezz4d</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydogecoin https://t.co/6d4pmp16b7</t>
+  </si>
+  <si>
+    <t>@memeinteligente definitivamente hawking e einstein pq eles são os 2 mais modernos e o tesla n acreditava na relatividade geral, n gostava de pessoas mas é alguem q eu ia qrer ter como oponente em uma mesa de xadrez pra tomar uma surra, mas falar eu joguei xadrez contra esse cara</t>
+  </si>
+  <si>
+    <t>@lord_yron pra mim já era meio que confirmar essa dos ovins kkkkkk
+mas o que me deixa pensativo é, se os projetos do tesla foram pegos pelo euas, imagina o tanto de projetos de outros estudiosos que também foram... 
+ainda mais sendo projetos ambiciosos como de espalhar energia de graça...</t>
+  </si>
+  <si>
+    <t>@samuel0216 tesla formulando ia ser paizão po</t>
+  </si>
+  <si>
+    <t>vídeo: tesla model 3 apanha motociclista a partir-lhe o espelho em andamento https://t.co/efg1gaawy9</t>
+  </si>
+  <si>
+    <t>menos o tesla, pq possivelmente ele ia dizer q tem coisa mais interessante pra fazer https://t.co/jdntjmiatk</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/bs1h1seb8o</t>
+  </si>
+  <si>
+    <t>fico tao triste sabendo que nikola tesla e o cartola morreram pobre</t>
+  </si>
+  <si>
+    <t>@tesla_addicted @ewwgaas @teslakevin sacramento ca.</t>
+  </si>
+  <si>
+    <t>🌈✨éñcyclõp£d¡á☮️🌌gálãct!cá✨🌙
+✨goldenratio💛fibonacci☯️sequence✨
+👼🏽🍀🦅✨nikola☮️💞tesla✨🐬🌻👼🏽
+https://t.co/d6sd1vyhkp https://t.co/gjuewep6ww</t>
+  </si>
+  <si>
+    <t>@o_bellzinnho por exemplo a tesla fornecendo suas "bases de desenvolvimento de automóveis" eletricos se auto intitulando como a melhor produtora de veículos de tal gênero. puta jogada</t>
+  </si>
+  <si>
+    <t>tesla e planck https://t.co/r7pgcuhb8i</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/bhr6qenbtr</t>
+  </si>
+  <si>
+    <t>difícil viu kkk vou no tesla ou no einstein https://t.co/hhjlj5u7hp</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/titndteqhh</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/l0j8xuq8e9</t>
+  </si>
+  <si>
+    <t>nikola tesla apenas obg pela transmissão por ca</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/cq1gastkfv</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/tzzkhs7bmz</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @dogeupdate https://t.co/9dz1t4mcpk</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/hive1mlwpw</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/i7av4i2j9b</t>
+  </si>
+  <si>
+    <t>@josromeurocha1 @math_felps @scorninpc @icarousan @astronomiaum uma combinação de mas escolhas na vida pessoal e a necessidade de ser excêntrico. além do estilo de vida que o tesla levava não ajudava muito.</t>
+  </si>
+  <si>
+    <t>o sucesso do corporate venture da tencent ($tcehy) é impressionante (&amp;gt;30% do seu valor).
+mesmo ex-china onde seu poder é menos relevante p/ criar vencedores. sea, nubank, spotify, snapchat, tesla são alguns nomes.
+presidente e cso são ex-ib goldman
+créditos: @pedrodrmoura https://t.co/4laddfmdoi</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/xuwp3uncfl</t>
+  </si>
+  <si>
+    <t>@davillagon @anaangiolina viva n tesla!! 🤜🤛👏👏👏</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/wemlmuudlf</t>
+  </si>
+  <si>
+    <t>@brunocarv29 @memeinteligente mas o tesla viveu na mesma época do einstein :v</t>
+  </si>
+  <si>
+    <t>@dudujorge2 @luke_bridges91 @avenaoficial @kimkataguiri tesla no brasil com a internet que temos kkkk
+vai ler gibi, opa é mangá</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/mrartfdynd</t>
+  </si>
+  <si>
+    <t>@elonmusk @teslarati @residentsponge go tesla</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/ifimfxq4gw</t>
+  </si>
+  <si>
+    <t>sério que tem gente burra que desmerece o tesla???
+mano olha da vontade de chorar kkkkkk</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @kucoincom @lyu_johnny @elonmusk @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy @babydogecoin do do do do do @elonmusk @mcuban</t>
+  </si>
+  <si>
+    <t>@delx88 @watcherguru @babydogecoin @babydogecoin do do do do do @elonmusk @adamhoov @tesla @teslarati @jackdorsey https://t.co/i1fwrt200u</t>
+  </si>
+  <si>
+    <t>@cksfpss @frkvlr eu e meus manos whipando um tesla https://t.co/r4tmbidnfs</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/kyet0at8ql</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin https://t.co/nwqvx8xsz8</t>
+  </si>
+  <si>
+    <t>@otakrazygo @astronomiaum nada disso, o tesla também fazia. até outro dia passou no history e nem foi pelo history, já sabia disso faz tempo...</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/h3287smhzl</t>
+  </si>
+  <si>
+    <t>apanhei uma viagem num tesla foda-se nem sabia abrir a porta daquela merda</t>
+  </si>
+  <si>
+    <t>um carro? — um tesla.. me da um? https://t.co/hx8zjudtwy</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/my8s2qf7jk</t>
+  </si>
+  <si>
+    <t>tesla note: o filho de ex arms</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/qil85lwymz</t>
+  </si>
+  <si>
+    <t>@joovictordiasfr @lagagx @orquidea360 @henriquepassoso @astronomiaum até o einstein disse que o tesla era mais inteligente que ele mas um menino do tt disse que ele era mentiroso 🤣</t>
+  </si>
+  <si>
+    <t>#usopennaespn / djokovic tem nikola tesla incorporado à sua  mente  viu fininho e nardini..</t>
+  </si>
+  <si>
+    <t>@tesla_25 oxi, cê é japa?</t>
+  </si>
+  <si>
+    <t>@memeinteligente vamo de tesla e einstein, einstein é considerado o maior genio da historia e ele mesmo disse que o tesla era o maior genio, ou seja, os dois cara mais inteligentes do milenio.</t>
+  </si>
+  <si>
+    <t>td vez que eu penso no tesla eu fico triste https://t.co/r8ljkhhrcf</t>
+  </si>
+  <si>
+    <t>#tesla patenteou laser que limpa vidros de carros.
+https://t.co/65k9bnen1z</t>
+  </si>
+  <si>
+    <t>@whindersson @zepassini @whindersson então, pensando por esse lado, é mais interessante deixar a pesquisa com a tesla, que tem caixa pra financiar e a necessidade de resolver esse mesmo problema, e investir uns trocados no vascão. pelo menos vamos ter mais motivos sorrir, ou menos pra chorar! kkkk</t>
+  </si>
+  <si>
+    <t>tesla medical beds
+https://t.co/gzttri13g2</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @ciarahuobi @babydogecoin @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase #babydoge #babydogecoin #babydoge #babydoge #babydoge #babydoge #babydogecoin @babydogecoin @babydoge @babydogearmy https://t.co/inhpsijawk</t>
+  </si>
+  <si>
+    <t>@memeinteligente hawking e schrödinger. as linhas de pensamento de aristóteles, newton e galileu são sabidas. hawking conhecia bem as contribuições de einstein, e tesla tbm não é tão complexo. planck e bohr ficam mais pra schrödinger, q ele domina mais a área</t>
+  </si>
+  <si>
+    <t>@astronomiaum eh muito louco isso né. vi um vídeo do @fecastanhari, o tesla só f*deu, mas tbm era um eugenista de merda</t>
+  </si>
+  <si>
+    <t>magnata chinês que comprou volvo da ford planeja enfrentar a tesla #gotesla
+https://t.co/qg7jy4chph via @uolcarros @uol</t>
+  </si>
+  <si>
+    <t>eletricidade foi o mais marcou a carreira de tesla. mas ele manjava muito de tudo, até a bendita radioatividade que ele teve contato anos antes de curie. fora as ondas de rádio e satélite que outro cientista que também estava estudando, tardiamente se apropriou</t>
+  </si>
+  <si>
+    <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/shryb3pxmn</t>
   </si>
 </sst>
 </file>
@@ -2950,17 +3763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B454" sqref="B454"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="161.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +3781,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3208,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3224,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3248,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3264,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3296,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3328,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3336,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3360,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3376,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3400,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3408,7 +4221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3424,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3456,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3464,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3472,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3488,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3512,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3528,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3536,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3552,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3560,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3576,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3592,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3600,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3624,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3648,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3656,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3672,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3696,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3704,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3712,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3720,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3744,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3752,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3760,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3776,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3784,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3792,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3800,7 +4613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3816,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3840,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3848,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3864,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3872,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3880,7 +4693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3888,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3896,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3904,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3920,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3936,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3944,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3952,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3968,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3984,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3992,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4000,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4008,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4024,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4040,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4072,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4080,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4096,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4128,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4136,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4144,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4160,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4168,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4176,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4200,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4208,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4224,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4232,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4240,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4248,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4264,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4280,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4288,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4296,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4312,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4328,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4336,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4352,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4376,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4392,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4400,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4408,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4416,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4424,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4440,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4456,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4472,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4480,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4488,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4520,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4528,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4544,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4552,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4560,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4568,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4576,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4584,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4592,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4608,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4616,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4624,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4632,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4664,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4680,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4696,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4704,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4712,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4720,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4728,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4736,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4744,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4752,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4760,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4768,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4776,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4784,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4792,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4800,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4808,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4816,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4824,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4832,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4840,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4848,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4856,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4864,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -4872,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4888,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4896,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4904,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4912,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4920,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4928,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4936,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4944,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4952,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4960,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4968,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4976,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4984,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4992,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5000,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5008,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5016,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5024,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5032,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5040,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5048,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5056,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5064,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5072,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5080,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5088,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5096,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5104,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5112,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5120,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5128,7 +5941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5136,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5144,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5152,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5168,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5176,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5184,7 +5997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5192,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5200,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5208,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5216,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5224,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5232,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5240,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +6061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5256,7 +6069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5264,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5272,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -5280,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5288,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5296,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -5304,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5312,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5320,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5328,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5336,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5344,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5352,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5360,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5368,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -5376,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -5384,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -5392,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -5400,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -5408,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -5416,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -5424,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -5432,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -5440,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -5448,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -5456,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -5464,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -5472,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -5480,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
@@ -5488,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -5496,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -5504,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -5512,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -5520,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -5528,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -5536,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -5544,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -5552,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -5560,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -5568,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -5576,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -5584,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -5592,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -5600,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -5608,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -5616,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -5624,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -5632,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -5648,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -5656,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -5664,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -5672,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -5680,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -5688,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
@@ -5704,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
@@ -5712,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -5720,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -5728,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -5736,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -5744,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -5752,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -5760,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
@@ -5768,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
@@ -5776,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
@@ -5784,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
@@ -5792,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
@@ -5800,7 +6613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
@@ -5808,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -5816,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
@@ -5824,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
@@ -5832,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
@@ -5840,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
@@ -5848,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
@@ -5856,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
@@ -5864,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
@@ -5872,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
@@ -5880,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
@@ -5888,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
@@ -5896,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
@@ -5904,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
@@ -5912,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
@@ -5920,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
@@ -5928,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
@@ -5936,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
@@ -5944,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
@@ -5952,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
@@ -5960,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
@@ -5968,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
@@ -5976,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
@@ -5984,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
@@ -5992,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
@@ -6000,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
@@ -6008,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
@@ -6016,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
@@ -6024,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
@@ -6032,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
@@ -6040,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
@@ -6048,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
@@ -6056,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
@@ -6064,7 +6877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -6072,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
@@ -6080,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
@@ -6088,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -6096,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
@@ -6104,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
@@ -6112,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -6120,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
@@ -6128,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
@@ -6136,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
@@ -6144,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
@@ -6152,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
@@ -6160,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
@@ -6168,7 +6981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
@@ -6176,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
@@ -6184,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
@@ -6192,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
@@ -6200,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
@@ -6208,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
@@ -6216,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
@@ -6224,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
@@ -6232,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
@@ -6240,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
@@ -6248,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
@@ -6256,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
@@ -6264,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
@@ -6272,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
@@ -6280,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
@@ -6288,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
@@ -6296,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
@@ -6304,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
@@ -6312,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
@@ -6320,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
@@ -6328,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
@@ -6336,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
@@ -6344,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
@@ -6352,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
@@ -6360,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
@@ -6368,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
@@ -6376,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
@@ -6384,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
@@ -6392,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
@@ -6400,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
@@ -6408,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
@@ -6416,7 +7229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
@@ -6424,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
@@ -6432,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
@@ -6440,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
@@ -6448,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
@@ -6456,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
@@ -6464,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
@@ -6472,15 +7285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
@@ -6488,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
@@ -6496,15 +7309,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
@@ -6512,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
@@ -6520,15 +7333,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
@@ -6536,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
@@ -6544,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
@@ -6552,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
@@ -6560,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -6568,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B452">
         <v>0</v>
       </c>
@@ -6580,18 +7393,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView topLeftCell="A532" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6599,7 +7412,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -6607,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
@@ -6615,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
@@ -6623,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
@@ -6631,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
@@ -6639,7 +7452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
@@ -6647,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
@@ -6655,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
@@ -6663,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
@@ -6671,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
@@ -6679,7 +7492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
@@ -6687,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
@@ -6695,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -6703,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
@@ -6711,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
@@ -6719,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
@@ -6727,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
@@ -6735,7 +7548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
@@ -6743,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
@@ -6751,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
@@ -6759,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
@@ -6767,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
@@ -6775,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
@@ -6783,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
@@ -6791,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
@@ -6799,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
@@ -6807,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
@@ -6815,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
@@ -6823,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
@@ -6831,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
@@ -6839,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
@@ -6847,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
@@ -6855,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
@@ -6863,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
@@ -6871,7 +7684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
@@ -6879,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
@@ -6887,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
@@ -6895,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
@@ -6903,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
@@ -6911,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
@@ -6919,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
@@ -6927,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
@@ -6935,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
@@ -6943,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
@@ -6951,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
@@ -6959,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
@@ -6967,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
@@ -6975,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
@@ -6983,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
@@ -6991,7 +7804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
@@ -6999,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
@@ -7007,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
@@ -7015,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
@@ -7023,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
@@ -7031,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
@@ -7039,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
@@ -7047,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
@@ -7055,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
@@ -7063,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
@@ -7071,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
@@ -7079,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
@@ -7087,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
@@ -7095,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
@@ -7103,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
@@ -7111,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
@@ -7119,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -7127,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
@@ -7135,7 +7948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
@@ -7143,7 +7956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
@@ -7151,7 +7964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
@@ -7159,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
@@ -7167,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
@@ -7175,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -7183,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
@@ -7191,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
@@ -7199,7 +8012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
@@ -7207,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
@@ -7215,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
@@ -7223,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
@@ -7231,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
@@ -7239,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
@@ -7247,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
@@ -7255,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
@@ -7263,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
@@ -7271,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
@@ -7279,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
@@ -7287,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
@@ -7295,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
@@ -7303,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
@@ -7311,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
@@ -7319,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
@@ -7327,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
@@ -7335,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
@@ -7343,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
@@ -7351,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
@@ -7359,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
@@ -7367,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
@@ -7375,7 +8188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
@@ -7383,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
@@ -7391,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
@@ -7399,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
@@ -7407,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
@@ -7415,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
@@ -7423,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
@@ -7431,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
@@ -7439,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
@@ -7447,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
@@ -7455,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
@@ -7463,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
@@ -7471,7 +8284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
@@ -7479,7 +8292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
@@ -7487,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
@@ -7495,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
@@ -7503,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
@@ -7511,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
@@ -7519,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
@@ -7527,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
@@ -7535,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
@@ -7543,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
@@ -7551,7 +8364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
@@ -7559,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
@@ -7567,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
@@ -7575,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
@@ -7583,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
@@ -7591,7 +8404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
@@ -7599,7 +8412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
@@ -7607,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
@@ -7615,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -7623,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
@@ -7631,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
@@ -7639,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
@@ -7647,7 +8460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
@@ -7655,7 +8468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
@@ -7663,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
@@ -7671,7 +8484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
@@ -7679,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
@@ -7687,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
@@ -7695,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
@@ -7703,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7711,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
@@ -7719,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
@@ -7727,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
@@ -7735,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
@@ -7743,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
@@ -7751,7 +8564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
@@ -7759,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
@@ -7767,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
@@ -7775,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
@@ -7783,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
@@ -7791,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
@@ -7799,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -7807,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -7815,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -7823,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
@@ -7831,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
@@ -7839,7 +8652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
@@ -7847,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
@@ -7855,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
@@ -7863,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
@@ -7871,7 +8684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
@@ -7879,7 +8692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
@@ -7887,7 +8700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
@@ -7895,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
@@ -7903,7 +8716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
@@ -7911,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
@@ -7919,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
@@ -7927,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
@@ -7935,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
@@ -7943,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
@@ -7951,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
@@ -7959,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
@@ -7967,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
@@ -7975,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
@@ -7983,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
@@ -7991,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
@@ -7999,7 +8812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
@@ -8007,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
@@ -8015,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
@@ -8023,7 +8836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
@@ -8031,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
@@ -8039,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
@@ -8047,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
@@ -8055,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
@@ -8063,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
@@ -8071,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
@@ -8079,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
@@ -8087,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
@@ -8095,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
@@ -8103,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
@@ -8111,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
@@ -8119,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
@@ -8127,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
@@ -8135,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
@@ -8143,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
@@ -8151,7 +8964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
@@ -8159,7 +8972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
@@ -8167,7 +8980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
@@ -8175,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
@@ -8183,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
@@ -8191,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
@@ -8199,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
@@ -8207,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
@@ -8215,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
@@ -8223,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
@@ -8231,7 +9044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
@@ -8239,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
@@ -8247,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
@@ -8255,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
@@ -8263,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
@@ -8271,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
@@ -8279,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
@@ -8287,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
@@ -8295,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
@@ -8303,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
@@ -8311,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
@@ -8319,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
@@ -8327,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
@@ -8335,7 +9148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
@@ -8343,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
@@ -8351,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
@@ -8359,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
@@ -8367,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
@@ -8375,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
@@ -8383,7 +9196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
@@ -8391,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
@@ -8399,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
@@ -8407,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
@@ -8415,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
@@ -8423,7 +9236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
@@ -8431,7 +9244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
@@ -8439,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
@@ -8447,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
@@ -8455,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
@@ -8463,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
@@ -8471,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
@@ -8479,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
@@ -8487,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
@@ -8495,7 +9308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
@@ -8503,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
@@ -8511,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
@@ -8519,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
@@ -8527,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
@@ -8535,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
@@ -8543,7 +9356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
@@ -8551,7 +9364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
@@ -8559,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
@@ -8567,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
@@ -8575,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
@@ -8583,7 +9396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
@@ -8591,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
@@ -8599,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
@@ -8607,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
@@ -8615,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
@@ -8623,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
@@ -8631,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
@@ -8639,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
@@ -8647,7 +9460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
@@ -8655,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
@@ -8663,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
@@ -8671,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
@@ -8679,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
@@ -8687,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
@@ -8695,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
@@ -8703,7 +9516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
@@ -8711,7 +9524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
@@ -8719,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
@@ -8727,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
@@ -8735,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
@@ -8743,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
@@ -8751,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
@@ -8759,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
@@ -8767,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
@@ -8775,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
@@ -8783,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
@@ -8791,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
@@ -8799,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
@@ -8807,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
@@ -8815,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
@@ -8823,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
@@ -8831,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
@@ -8839,7 +9652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
@@ -8847,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
@@ -8855,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
@@ -8863,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
@@ -8871,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
@@ -8879,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
@@ -8887,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
@@ -8895,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
@@ -8903,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
@@ -8911,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
@@ -8919,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
@@ -8927,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
@@ -8935,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
@@ -8943,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
@@ -8951,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
@@ -8959,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
@@ -8967,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
@@ -8975,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
@@ -8983,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
@@ -8991,11 +9804,1558 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>
       <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B551">
         <v>0</v>
       </c>
     </row>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbarbosa/Desktop/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{76880D60-5A79-4064-ADD1-C131460048ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3875A55-020A-4AF6-A8C0-EA488546967B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E9D26-A14B-9B41-9C30-C4245A09C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3763,17 +3763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="161.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B452">
         <v>0</v>
       </c>
@@ -7395,16 +7395,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView topLeftCell="A532" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>467</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>468</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>469</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>470</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>471</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>472</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>473</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>474</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>475</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>476</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>477</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>478</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>479</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>480</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>481</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>482</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>483</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>484</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>485</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>486</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>487</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>488</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>489</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>490</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>492</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>493</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>494</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>495</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>496</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>497</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>498</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>499</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>500</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>501</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>502</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>503</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>504</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>505</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>506</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>507</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>508</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>509</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>510</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>511</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>512</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>513</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>514</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>515</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>516</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>518</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>519</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>520</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>521</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>522</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>523</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>525</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>526</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>527</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>528</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>529</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>530</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>531</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>532</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>533</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>534</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>536</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>537</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>538</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>539</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>540</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>541</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>542</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>543</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>544</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>545</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>546</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>547</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>548</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>549</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>550</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>551</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>552</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>553</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>554</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>556</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>557</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>558</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>559</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>560</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>561</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>562</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>563</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>564</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>565</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>566</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>567</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>568</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>569</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>570</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>571</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>572</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>573</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>574</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>575</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>576</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>577</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>578</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>579</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>580</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>581</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>582</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>583</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>584</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>585</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>586</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>587</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>588</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>589</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>591</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>592</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>593</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>594</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>595</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>596</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>597</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>598</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>599</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>600</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>601</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>605</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>606</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>607</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>608</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>609</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>610</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>611</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>612</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>613</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>614</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>615</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>616</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>617</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>618</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>619</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>620</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>621</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>622</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>623</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>624</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>625</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>626</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>628</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>629</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>630</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>631</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>632</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>633</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>634</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>635</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>637</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>638</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>639</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>640</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>641</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>642</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>643</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>644</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>645</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>646</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>647</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>648</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>649</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>650</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>651</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>652</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>653</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>654</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>655</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>656</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>657</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>658</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>659</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>660</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>661</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>662</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>663</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>664</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>665</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>666</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>667</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>668</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>669</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>670</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>671</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>672</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>673</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>674</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>675</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>676</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>678</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>679</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>680</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>681</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>682</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>683</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>684</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>685</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>687</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>688</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>689</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>690</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>691</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>692</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>693</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>694</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>695</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>696</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>697</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>698</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>700</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>701</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>703</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>704</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>705</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>706</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>707</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>708</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>709</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>710</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>711</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>712</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>713</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>714</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>715</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>716</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>717</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>718</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>719</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>720</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>721</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>722</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>723</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>724</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>725</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>726</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>727</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>728</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>729</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>730</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>731</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>732</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>733</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>734</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>736</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>737</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>738</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>739</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>740</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>741</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>742</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>743</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>744</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>745</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>746</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>747</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>748</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>749</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>750</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>754</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>755</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>756</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>757</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>758</v>
       </c>
@@ -9852,22 +9852,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>762</v>
       </c>
@@ -9875,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>763</v>
       </c>
@@ -9883,22 +9892,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>767</v>
       </c>
@@ -9906,12 +9924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>769</v>
       </c>
@@ -9919,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>770</v>
       </c>
@@ -9927,12 +9948,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>772</v>
       </c>
@@ -9940,17 +9964,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>775</v>
       </c>
@@ -9958,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>776</v>
       </c>
@@ -9966,32 +9996,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>782</v>
       </c>
@@ -9999,27 +10044,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>787</v>
       </c>
@@ -10027,17 +10084,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>790</v>
       </c>
@@ -10045,17 +10108,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>793</v>
       </c>
@@ -10063,32 +10132,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>799</v>
       </c>
@@ -10096,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>800</v>
       </c>
@@ -10104,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>801</v>
       </c>
@@ -10112,32 +10196,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>807</v>
       </c>
@@ -10145,22 +10244,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>811</v>
       </c>
@@ -10168,12 +10276,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>813</v>
       </c>
@@ -10181,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>814</v>
       </c>
@@ -10189,22 +10300,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>818</v>
       </c>
@@ -10212,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>819</v>
       </c>
@@ -10220,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>820</v>
       </c>
@@ -10228,12 +10348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>822</v>
       </c>
@@ -10241,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>823</v>
       </c>
@@ -10249,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>824</v>
       </c>
@@ -10257,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>825</v>
       </c>
@@ -10265,32 +10388,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>831</v>
       </c>
@@ -10298,17 +10436,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>834</v>
       </c>
@@ -10316,12 +10460,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>836</v>
       </c>
@@ -10329,17 +10476,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>839</v>
       </c>
@@ -10347,12 +10500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>841</v>
       </c>
@@ -10360,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>842</v>
       </c>
@@ -10368,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>843</v>
       </c>
@@ -10376,67 +10532,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>856</v>
       </c>
@@ -10444,17 +10636,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>859</v>
       </c>
@@ -10462,22 +10660,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>863</v>
       </c>
@@ -10485,17 +10692,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>866</v>
       </c>
@@ -10503,12 +10716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>868</v>
       </c>
@@ -10516,22 +10732,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>872</v>
       </c>
@@ -10539,12 +10764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>874</v>
       </c>
@@ -10552,32 +10780,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>880</v>
       </c>
@@ -10585,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>881</v>
       </c>
@@ -10593,17 +10836,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>884</v>
       </c>
@@ -10611,22 +10860,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>888</v>
       </c>
@@ -10634,17 +10892,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>891</v>
       </c>
@@ -10652,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>892</v>
       </c>
@@ -10660,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>893</v>
       </c>
@@ -10668,22 +10932,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>897</v>
       </c>
@@ -10691,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>898</v>
       </c>
@@ -10699,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>899</v>
       </c>
@@ -10707,12 +10980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>901</v>
       </c>
@@ -10720,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>902</v>
       </c>
@@ -10728,22 +11004,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>906</v>
       </c>
@@ -10751,17 +11036,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>909</v>
       </c>
@@ -10769,17 +11060,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>912</v>
       </c>
@@ -10787,22 +11084,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>916</v>
       </c>
@@ -10810,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>917</v>
       </c>
@@ -10818,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>918</v>
       </c>
@@ -10826,12 +11132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>920</v>
       </c>
@@ -10839,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>921</v>
       </c>
@@ -10847,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>922</v>
       </c>
@@ -10855,22 +11164,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>926</v>
       </c>
@@ -10878,17 +11196,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>929</v>
       </c>
@@ -10896,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>930</v>
       </c>
@@ -10904,12 +11228,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>932</v>
       </c>
@@ -10917,12 +11244,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>934</v>
       </c>
@@ -10930,12 +11260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>936</v>
       </c>
@@ -10943,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>937</v>
       </c>
@@ -10951,12 +11284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>939</v>
       </c>
@@ -10964,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>940</v>
       </c>
@@ -10972,12 +11308,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>942</v>
       </c>
@@ -10985,12 +11324,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>944</v>
       </c>
@@ -10998,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>945</v>
       </c>
@@ -11006,32 +11348,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>951</v>
       </c>
@@ -11039,32 +11396,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>957</v>
       </c>
@@ -11072,12 +11444,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>959</v>
       </c>
@@ -11085,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>960</v>
       </c>
@@ -11093,12 +11468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>962</v>
       </c>
@@ -11106,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>963</v>
       </c>
@@ -11114,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>964</v>
       </c>
@@ -11122,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>965</v>
       </c>
@@ -11130,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>966</v>
       </c>
@@ -11138,17 +11516,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>969</v>
       </c>
@@ -11156,12 +11540,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>971</v>
       </c>
@@ -11169,17 +11556,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>974</v>
       </c>
@@ -11187,12 +11580,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>976</v>
       </c>
@@ -11200,12 +11596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>978</v>
       </c>
@@ -11213,17 +11612,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>981</v>
       </c>
@@ -11231,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>982</v>
       </c>
@@ -11239,12 +11644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>984</v>
       </c>
@@ -11252,17 +11660,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>987</v>
       </c>
@@ -11270,12 +11684,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>989</v>
       </c>
@@ -11283,47 +11700,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>998</v>
       </c>
@@ -11331,27 +11772,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>1003</v>
       </c>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C75E9D26-A14B-9B41-9C30-C4245A09C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3097C24D-55DD-4E66-9C71-BE5F4477D732}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3760,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView topLeftCell="A644" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A653" sqref="A653"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8987,7 +8987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d96fb9b8a99733d/Área de Trabalho/C Dados/Projeto 1 Cdados/Pasta Projeto 1/Projeto1_CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C75E9D26-A14B-9B41-9C30-C4245A09C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3097C24D-55DD-4E66-9C71-BE5F4477D732}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C75E9D26-A14B-9B41-9C30-C4245A09C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF90B3A-16E7-4F82-9DC8-C1ACE7D7609E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1004">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3354,6 +3354,9 @@
   </si>
   <si>
     <t>@trbabydogecoin @binance @babydogecoin @elonmusk @cz_binance @babydogecoin do do do do do @elonmusk @mcuban @tesla @teslarati :) @binance @huobiglobal @krakenfx @kucoin @coinbase https://t.co/shryb3pxmn</t>
+  </si>
+  <si>
+    <t>Classificador</t>
   </si>
 </sst>
 </file>
@@ -3760,14 +3763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="161.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -8985,27 +8989,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="167" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -9013,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>453</v>
       </c>
@@ -9021,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>455</v>
       </c>
@@ -9037,7 +9045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>456</v>
       </c>
@@ -9045,7 +9053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>457</v>
       </c>
@@ -9053,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>458</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>459</v>
       </c>
@@ -9069,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>460</v>
       </c>
@@ -9077,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>461</v>
       </c>
@@ -9085,7 +9093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>462</v>
       </c>
@@ -9093,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -9109,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>465</v>
       </c>
@@ -9117,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>466</v>
       </c>
